--- a/src/Excel/output/飲食業_山形市.xlsx
+++ b/src/Excel/output/飲食業_山形市.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDBD4B9-0107-4CCB-8FBC-7AD44C719779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF9988-81DE-43AA-850D-A593C9D5EAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="510" windowWidth="27675" windowHeight="18195" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
+    <workbookView xWindow="3180" yWindow="4530" windowWidth="28485" windowHeight="14700" xr2:uid="{627EF6FB-71EC-4519-82AC-6A2193D090EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6848,29 +6848,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7180,51 +7170,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA919E-F71A-4DC0-BB86-57B9BD20D6E7}">
-  <dimension ref="A1:K768"/>
+  <dimension ref="A1:K764"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="21.25" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7280,10 +7265,10 @@
         <v>15</v>
       </c>
       <c r="J3">
-        <v>38.244914000000001</v>
+        <v>38.248073416243699</v>
       </c>
       <c r="K3">
-        <v>140.31204600000001</v>
+        <v>140.31319440472399</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -7309,10 +7294,10 @@
         <v>15</v>
       </c>
       <c r="J4">
-        <v>38.244914000000001</v>
+        <v>38.250603578610999</v>
       </c>
       <c r="K4">
-        <v>140.31204600000001</v>
+        <v>140.30956893347201</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -7338,10 +7323,10 @@
         <v>15</v>
       </c>
       <c r="J5">
-        <v>38.244914000000001</v>
+        <v>38.2438093237377</v>
       </c>
       <c r="K5">
-        <v>140.31204600000001</v>
+        <v>140.307710214472</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -7367,10 +7352,10 @@
         <v>15</v>
       </c>
       <c r="J6">
-        <v>38.244914000000001</v>
+        <v>38.245431452366702</v>
       </c>
       <c r="K6">
-        <v>140.31204600000001</v>
+        <v>140.312342412904</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -7837,10 +7822,10 @@
         <v>15</v>
       </c>
       <c r="J22">
-        <v>38.266454600000003</v>
+        <v>38.261199016034404</v>
       </c>
       <c r="K22">
-        <v>140.3237527</v>
+        <v>140.322471438554</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -7866,10 +7851,10 @@
         <v>15</v>
       </c>
       <c r="J23">
-        <v>38.266454600000003</v>
+        <v>38.261020235113698</v>
       </c>
       <c r="K23">
-        <v>140.3237527</v>
+        <v>140.324300970705</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -7895,10 +7880,10 @@
         <v>15</v>
       </c>
       <c r="J24">
-        <v>38.266454600000003</v>
+        <v>38.262794477708802</v>
       </c>
       <c r="K24">
-        <v>140.3237527</v>
+        <v>140.32467222688501</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -9691,10 +9676,10 @@
         <v>15</v>
       </c>
       <c r="J85">
-        <v>38.2488168</v>
+        <v>38.248727256984203</v>
       </c>
       <c r="K85">
-        <v>140.3279957</v>
+        <v>140.32790464364001</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
@@ -9947,10 +9932,10 @@
         <v>15</v>
       </c>
       <c r="J93">
-        <v>38.2488168</v>
+        <v>38.2485330729384</v>
       </c>
       <c r="K93">
-        <v>140.3279957</v>
+        <v>140.32798933081801</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -10607,7 +10592,7 @@
         <v>38.249305100000001</v>
       </c>
       <c r="K114">
-        <v>140.3302545</v>
+        <v>140.3304545</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
@@ -15503,10 +15488,10 @@
         <v>15</v>
       </c>
       <c r="J273">
-        <v>38.219112099999997</v>
+        <v>38.218859655580303</v>
       </c>
       <c r="K273">
-        <v>140.3158292</v>
+        <v>140.319347703039</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.4">
@@ -23467,10 +23452,10 @@
         <v>15</v>
       </c>
       <c r="J538">
-        <v>38.251173799999997</v>
+        <v>38.252669755580399</v>
       </c>
       <c r="K538">
-        <v>140.32438930000001</v>
+        <v>140.3236717831</v>
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.4">
@@ -23496,10 +23481,10 @@
         <v>15</v>
       </c>
       <c r="J539">
-        <v>38.251173799999997</v>
+        <v>38.2519956048449</v>
       </c>
       <c r="K539">
-        <v>140.32438930000001</v>
+        <v>140.32824353779301</v>
       </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.4">
@@ -23525,10 +23510,10 @@
         <v>15</v>
       </c>
       <c r="J540">
-        <v>38.251173799999997</v>
+        <v>38.2520072087827</v>
       </c>
       <c r="K540">
-        <v>140.32438930000001</v>
+        <v>140.327338678621</v>
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.4">
@@ -24871,10 +24856,10 @@
         <v>15</v>
       </c>
       <c r="J586">
-        <v>38.169201899999997</v>
+        <v>38.1648682867147</v>
       </c>
       <c r="K586">
-        <v>140.39899220000001</v>
+        <v>140.371353654952</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.4">
@@ -24958,10 +24943,10 @@
         <v>15</v>
       </c>
       <c r="J589">
-        <v>38.169201899999997</v>
+        <v>38.165874137627199</v>
       </c>
       <c r="K589">
-        <v>140.39899220000001</v>
+        <v>140.415216213604</v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.4">
@@ -29652,10 +29637,10 @@
         <v>15</v>
       </c>
       <c r="J749">
-        <v>38.255850899999999</v>
+        <v>38.257378974664199</v>
       </c>
       <c r="K749">
-        <v>140.3374158</v>
+        <v>140.342468197199</v>
       </c>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.4">
@@ -29684,10 +29669,10 @@
         <v>15</v>
       </c>
       <c r="J750">
-        <v>38.255850899999999</v>
+        <v>38.256908536732197</v>
       </c>
       <c r="K750">
-        <v>140.3374158</v>
+        <v>140.34126859563</v>
       </c>
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.4">
@@ -29751,7 +29736,7 @@
         <v>38.254262099999998</v>
       </c>
       <c r="K752">
-        <v>140.3392528</v>
+        <v>140.3393528</v>
       </c>
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.4">
@@ -30108,23 +30093,8 @@
         <v>140.35717790000001</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H765" s="1"/>
-    </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H766" s="1"/>
-    </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H767" s="1"/>
-    </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H768" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F1:F1046850">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
